--- a/excel-exercise/25 Rumus Wajib di Excel.xlsx
+++ b/excel-exercise/25 Rumus Wajib di Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3855" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="133">
   <si>
     <t>Nama Murid</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>merapihkan spasi</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -553,12 +556,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,6 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,9 +659,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -978,7 +1009,7 @@
       <c r="B2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -989,7 +1020,7 @@
       <c r="B3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -998,7 +1029,7 @@
       <c r="B4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1007,7 +1038,7 @@
       <c r="B5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1016,7 +1047,7 @@
       <c r="B6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1025,7 +1056,7 @@
       <c r="B7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1034,7 +1065,7 @@
       <c r="B8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1043,7 +1074,7 @@
       <c r="B9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -1052,7 +1083,7 @@
       <c r="B10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1063,7 +1094,7 @@
       <c r="B11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -1072,7 +1103,7 @@
       <c r="B12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1082,7 +1113,7 @@
       <c r="B13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1091,7 +1122,7 @@
       <c r="B14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1102,7 +1133,7 @@
       <c r="B15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1111,7 +1142,7 @@
       <c r="B16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1120,7 +1151,7 @@
       <c r="B17" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1129,7 +1160,7 @@
       <c r="B18" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -1138,7 +1169,7 @@
       <c r="B19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1149,7 +1180,7 @@
       <c r="B20" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -1158,7 +1189,7 @@
       <c r="B21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -1167,7 +1198,7 @@
       <c r="B22" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
@@ -1176,7 +1207,7 @@
       <c r="B23" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
@@ -1185,7 +1216,7 @@
       <c r="B24" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1194,7 +1225,7 @@
       <c r="B25" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1205,7 +1236,7 @@
       <c r="B26" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1214,7 +1245,7 @@
       <c r="B27" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1233,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1550,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,11 +1593,11 @@
     <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="32" t="s">
         <v>125</v>
       </c>
@@ -1574,47 +1605,62 @@
       <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="str">
+        <f>TRIM(C1)</f>
+        <v>NaMa KEPala SekOLAH</v>
+      </c>
       <c r="D2" s="31"/>
       <c r="F2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="33" t="str">
+        <f>LOWER(C2)</f>
+        <v>nama kepala sekolah</v>
+      </c>
+      <c r="D3" s="34"/>
       <c r="F3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="33" t="str">
+        <f>UPPER(C2)</f>
+        <v>NAMA KEPALA SEKOLAH</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="33" t="str">
+        <f>PROPER(C2)</f>
+        <v>Nama Kepala Sekolah</v>
+      </c>
+      <c r="D5" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1637,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E13"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,8 +1725,14 @@
       <c r="C2" s="2">
         <v>1990</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="str">
+        <f>CONCATENATE(A2,"-",B2,"-",C2)</f>
+        <v>HR-Ruben-1990</v>
+      </c>
+      <c r="E2" s="2">
+        <f>LEN(B2:B5)</f>
+        <v>5</v>
+      </c>
       <c r="G2" s="7" t="s">
         <v>66</v>
       </c>
@@ -1695,8 +1747,14 @@
       <c r="C3" s="2">
         <v>1994</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="24" t="str">
+        <f t="shared" ref="D3:D5" si="0">CONCATENATE(A3,"-",B3,"-",C3)</f>
+        <v>Finance-Disti-1994</v>
+      </c>
+      <c r="E3" s="24">
+        <f t="shared" ref="E3:E5" si="1">LEN(B3:B6)</f>
+        <v>5</v>
+      </c>
       <c r="G3" s="7" t="s">
         <v>93</v>
       </c>
@@ -1711,8 +1769,14 @@
       <c r="C4" s="2">
         <v>1989</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Sales-Juned M.-1989</v>
+      </c>
+      <c r="E4" s="24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="G4" s="7" t="s">
         <v>94</v>
       </c>
@@ -1727,8 +1791,14 @@
       <c r="C5" s="2">
         <v>1997</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>HR-Aryanne-1997</v>
+      </c>
+      <c r="E5" s="24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="G5" s="7" t="s">
         <v>95</v>
       </c>
@@ -1757,9 +1827,18 @@
       <c r="B10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="str">
+        <f>LEFT(B10,3)</f>
+        <v>123</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>MID(B10,4,4)</f>
+        <v>4560</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>RIGHT(B10,2)</f>
+        <v>01</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1768,9 +1847,18 @@
       <c r="B11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="24" t="str">
+        <f t="shared" ref="C11:C13" si="2">LEFT(B11,3)</f>
+        <v>288</v>
+      </c>
+      <c r="D11" s="24" t="str">
+        <f t="shared" ref="D11:D13" si="3">MID(B11,4,4)</f>
+        <v>5670</v>
+      </c>
+      <c r="E11" s="24" t="str">
+        <f t="shared" ref="E11:E13" si="4">RIGHT(B11,2)</f>
+        <v>02</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1779,9 +1867,18 @@
       <c r="B12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="D12" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>8780</v>
+      </c>
+      <c r="E12" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1790,9 +1887,18 @@
       <c r="B13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>456</v>
+      </c>
+      <c r="D13" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>1231</v>
+      </c>
+      <c r="E13" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1806,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K6"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,18 +1966,36 @@
       <c r="B2" s="2">
         <v>57.26</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="11">
+        <f>ROUNDDOWN(B2,0)</f>
+        <v>57</v>
+      </c>
+      <c r="D2" s="11">
+        <f>ROUNDUP(B2,0)</f>
+        <v>58</v>
+      </c>
+      <c r="E2" s="11">
+        <f>ROUND(B2,0)</f>
+        <v>57</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H2" s="11">
         <v>1150</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="I2" s="3">
+        <f>FLOOR(H2,100)</f>
+        <v>1100</v>
+      </c>
+      <c r="J2" s="21">
+        <f>CEILING(H2,100)</f>
+        <v>1200</v>
+      </c>
+      <c r="K2" s="21">
+        <f>MROUND(H2,100)</f>
+        <v>1200</v>
+      </c>
       <c r="M2" s="7" t="s">
         <v>82</v>
       </c>
@@ -1883,18 +2007,36 @@
       <c r="B3" s="2">
         <v>84.15</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="11">
+        <f t="shared" ref="C3:C11" si="0">ROUNDDOWN(B3,0)</f>
+        <v>84</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D11" si="1">ROUNDUP(B3,0)</f>
+        <v>85</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E11" si="2">ROUND(B3,0)</f>
+        <v>84</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H3" s="11">
         <v>560</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I6" si="3">FLOOR(H3,100)</f>
+        <v>500</v>
+      </c>
+      <c r="J3" s="21">
+        <f t="shared" ref="J3:J6" si="4">CEILING(H3,100)</f>
+        <v>600</v>
+      </c>
+      <c r="K3" s="21">
+        <f t="shared" ref="K3:K6" si="5">MROUND(H3,100)</f>
+        <v>600</v>
+      </c>
       <c r="M3" s="7" t="s">
         <v>83</v>
       </c>
@@ -1906,18 +2048,36 @@
       <c r="B4" s="2">
         <v>75.89</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="11">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H4" s="11">
         <v>86</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="I4" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
       <c r="M4" s="7" t="s">
         <v>84</v>
       </c>
@@ -1929,18 +2089,36 @@
       <c r="B5" s="2">
         <v>91.29</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H5" s="11">
         <v>125</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
       <c r="M5" s="7" t="s">
         <v>80</v>
       </c>
@@ -1952,18 +2130,36 @@
       <c r="B6" s="2">
         <v>64.489999999999995</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="11">
         <v>968</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
       <c r="M6" s="7" t="s">
         <v>81</v>
       </c>
@@ -1975,9 +2171,18 @@
       <c r="B7" s="2">
         <v>59.55</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="M7" s="7" t="s">
         <v>85</v>
@@ -1990,9 +2195,18 @@
       <c r="B8" s="2">
         <v>67.42</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2002,9 +2216,18 @@
       <c r="B9" s="2">
         <v>98.05</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2014,9 +2237,18 @@
       <c r="B10" s="2">
         <v>63.45</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2026,9 +2258,18 @@
       <c r="B11" s="2">
         <v>79.13</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
       <c r="H11" s="12"/>
     </row>
   </sheetData>
@@ -2040,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,9 +2318,18 @@
       <c r="B2" s="16">
         <v>106</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(B2,'Data Referensi'!$A$1:$D$11,2,0),"data tidak ada")</f>
+        <v>Fiona</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(B2,'Data Referensi'!$A$1:$D$11,4,0),"data tidak ada")</f>
+        <v>Palembang</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IFERROR(HLOOKUP(D2,'Data Referensi'!$A$14:$E$15,2,0), "data tidak ada")</f>
+        <v>2 Hari</v>
+      </c>
       <c r="H2" s="7" t="s">
         <v>121</v>
       </c>
@@ -2091,9 +2341,18 @@
       <c r="B3" s="16">
         <v>102</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B3,'Data Referensi'!$A$1:$D$11,2,0),"data tidak ada")</f>
+        <v>Budi</v>
+      </c>
+      <c r="D3" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B3,'Data Referensi'!$A$1:$D$11,4,0),"data tidak ada")</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E3" s="24" t="str">
+        <f>IFERROR(HLOOKUP(D3,'Data Referensi'!$A$14:$E$15,2,0), "data tidak ada")</f>
+        <v>1 Hari</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>122</v>
       </c>
@@ -2105,9 +2364,18 @@
       <c r="B4" s="16">
         <v>104</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B4,'Data Referensi'!$A$1:$D$11,2,0),"data tidak ada")</f>
+        <v>Dewi</v>
+      </c>
+      <c r="D4" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B4,'Data Referensi'!$A$1:$D$11,4,0),"data tidak ada")</f>
+        <v>Surabaya</v>
+      </c>
+      <c r="E4" s="24" t="str">
+        <f>IFERROR(HLOOKUP(D4,'Data Referensi'!$A$14:$E$15,2,0), "data tidak ada")</f>
+        <v>3 Hari</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>123</v>
       </c>
@@ -2119,9 +2387,18 @@
       <c r="B5" s="16">
         <v>105</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B5,'Data Referensi'!$A$1:$D$11,2,0),"data tidak ada")</f>
+        <v>Eko</v>
+      </c>
+      <c r="D5" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B5,'Data Referensi'!$A$1:$D$11,4,0),"data tidak ada")</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f>IFERROR(HLOOKUP(D5,'Data Referensi'!$A$14:$E$15,2,0), "data tidak ada")</f>
+        <v>1 Hari</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -2130,9 +2407,18 @@
       <c r="B6" s="16">
         <v>110</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B6,'Data Referensi'!$A$1:$D$11,2,0),"data tidak ada")</f>
+        <v>Juned</v>
+      </c>
+      <c r="D6" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B6,'Data Referensi'!$A$1:$D$11,4,0),"data tidak ada")</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E6" s="24" t="str">
+        <f>IFERROR(HLOOKUP(D6,'Data Referensi'!$A$14:$E$15,2,0), "data tidak ada")</f>
+        <v>2 Hari</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -2141,9 +2427,18 @@
       <c r="B7" s="16">
         <v>103</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B7,'Data Referensi'!$A$1:$D$11,2,0),"data tidak ada")</f>
+        <v>Clara</v>
+      </c>
+      <c r="D7" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B7,'Data Referensi'!$A$1:$D$11,4,0),"data tidak ada")</f>
+        <v>Palembang</v>
+      </c>
+      <c r="E7" s="24" t="str">
+        <f>IFERROR(HLOOKUP(D7,'Data Referensi'!$A$14:$E$15,2,0), "data tidak ada")</f>
+        <v>2 Hari</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
@@ -2152,9 +2447,18 @@
       <c r="B8" s="16">
         <v>108</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B8,'Data Referensi'!$A$1:$D$11,2,0),"data tidak ada")</f>
+        <v>Hesti</v>
+      </c>
+      <c r="D8" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B8,'Data Referensi'!$A$1:$D$11,4,0),"data tidak ada")</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E8" s="24" t="str">
+        <f>IFERROR(HLOOKUP(D8,'Data Referensi'!$A$14:$E$15,2,0), "data tidak ada")</f>
+        <v>2 Hari</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
@@ -2163,9 +2467,18 @@
       <c r="B9" s="16">
         <v>109</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B9,'Data Referensi'!$A$1:$D$11,2,0),"data tidak ada")</f>
+        <v>Igna</v>
+      </c>
+      <c r="D9" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B9,'Data Referensi'!$A$1:$D$11,4,0),"data tidak ada")</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E9" s="24" t="str">
+        <f>IFERROR(HLOOKUP(D9,'Data Referensi'!$A$14:$E$15,2,0), "data tidak ada")</f>
+        <v>1 Hari</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
@@ -2174,9 +2487,18 @@
       <c r="B10" s="16">
         <v>101</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B10,'Data Referensi'!$A$1:$D$11,2,0),"data tidak ada")</f>
+        <v>Andi</v>
+      </c>
+      <c r="D10" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B10,'Data Referensi'!$A$1:$D$11,4,0),"data tidak ada")</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E10" s="24" t="str">
+        <f>IFERROR(HLOOKUP(D10,'Data Referensi'!$A$14:$E$15,2,0), "data tidak ada")</f>
+        <v>2 Hari</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
@@ -2185,9 +2507,18 @@
       <c r="B11" s="16">
         <v>112</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B11,'Data Referensi'!$A$1:$D$11,2,0),"data tidak ada")</f>
+        <v>data tidak ada</v>
+      </c>
+      <c r="D11" s="24" t="str">
+        <f>IFERROR(VLOOKUP(B11,'Data Referensi'!$A$1:$D$11,4,0),"data tidak ada")</f>
+        <v>data tidak ada</v>
+      </c>
+      <c r="E11" s="24" t="str">
+        <f>IFERROR(HLOOKUP(D11,'Data Referensi'!$A$14:$E$15,2,0), "data tidak ada")</f>
+        <v>data tidak ada</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
